--- a/src/test/resources/testData.xlsx
+++ b/src/test/resources/testData.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\IdeaProjects\com.HealLifeHospital_Team1\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B7CF84-12DD-4DA4-A865-458E13EC0811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CC1908-B7C7-4598-BC4A-1E92016403AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25400" yWindow="1340" windowWidth="20330" windowHeight="13930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37640" yWindow="-2250" windowWidth="20330" windowHeight="13930" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginBilgileri" sheetId="1" r:id="rId1"/>
+    <sheet name="serenTestData" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="93">
   <si>
     <t>1.column</t>
   </si>
@@ -296,6 +297,9 @@
   </si>
   <si>
     <t>12.row</t>
+  </si>
+  <si>
+    <t>hastaIPDNO</t>
   </si>
 </sst>
 </file>
@@ -480,7 +484,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -534,6 +538,8 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -841,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1200,4 +1206,116 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043E1341-7BFA-47AC-9287-8DBB59009468}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="19"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="19">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+    </row>
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+    </row>
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+    </row>
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+    </row>
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+    </row>
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+    </row>
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+    </row>
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+    </row>
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+    </row>
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+    </row>
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>